--- a/example_2_folder/metrics_exemple_2.xlsx
+++ b/example_2_folder/metrics_exemple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B0D76-D7C0-4F14-A41A-A5D4C925E44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250BB334-073A-43BF-83DD-E4259919316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>type</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>bat_20kwh</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>m2</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L20"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +793,7 @@
         <v>8072.3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -816,7 +822,7 @@
         <v>8991</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -837,6 +843,154 @@
       </c>
       <c r="J20">
         <v>2214.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="D25">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>100</v>
+      </c>
+      <c r="B26">
+        <v>160</v>
+      </c>
+      <c r="C26">
+        <v>0.74770000000000003</v>
+      </c>
+      <c r="D26">
+        <v>0.19089999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27">
+        <v>0.6381</v>
+      </c>
+      <c r="D27">
+        <v>0.2392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>200</v>
+      </c>
+      <c r="B28">
+        <v>320</v>
+      </c>
+      <c r="C28">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.2661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>250</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.2863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>300</v>
+      </c>
+      <c r="B30">
+        <v>480</v>
+      </c>
+      <c r="C30">
+        <v>0.39</v>
+      </c>
+      <c r="D30">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>400</v>
+      </c>
+      <c r="B31">
+        <v>640</v>
+      </c>
+      <c r="C31">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="D31">
+        <v>0.32190000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>500</v>
+      </c>
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="C32">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="D32">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>600</v>
+      </c>
+      <c r="B33">
+        <v>960</v>
+      </c>
+      <c r="C33">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="D33">
+        <v>0.35399999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/example_2_folder/metrics_exemple_2.xlsx
+++ b/example_2_folder/metrics_exemple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250BB334-073A-43BF-83DD-E4259919316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553DBB2-D68F-4E77-A694-CD437D610697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -117,6 +117,45 @@
   </si>
   <si>
     <t>m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nv prix : </t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV : </t>
+  </si>
+  <si>
+    <t>gain inv par hab</t>
+  </si>
+  <si>
+    <t>gain fact</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>fix1round</t>
+  </si>
+  <si>
+    <t>fixmultiround</t>
+  </si>
+  <si>
+    <t>prorata</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>min saving</t>
+  </si>
+  <si>
+    <t>max saving</t>
   </si>
 </sst>
 </file>
@@ -434,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -471,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -499,8 +538,14 @@
       <c r="J3">
         <v>5173.8999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -528,8 +573,17 @@
       <c r="J4">
         <v>7268.14</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>5742.8</v>
+      </c>
+      <c r="P4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4">
+        <v>1532.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -558,7 +612,7 @@
         <v>7274.77</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -587,7 +641,7 @@
         <v>8926.3700000000008</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -619,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -648,7 +702,18 @@
         <v>7387.64</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -676,8 +741,31 @@
       <c r="J12">
         <v>2652.24</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <v>7281.4</v>
+      </c>
+      <c r="M12">
+        <f>J12+R4</f>
+        <v>4184.34</v>
+      </c>
+      <c r="O12">
+        <f>M12-L12</f>
+        <v>-3097.0599999999995</v>
+      </c>
+      <c r="P12">
+        <f>O12/24</f>
+        <v>-129.04416666666665</v>
+      </c>
+      <c r="Q12">
+        <f>E12</f>
+        <v>399.67</v>
+      </c>
+      <c r="S12">
+        <f>Q12+P12</f>
+        <v>270.62583333333339</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -705,8 +793,31 @@
       <c r="J13">
         <v>4231.16</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <v>7281.4</v>
+      </c>
+      <c r="M13">
+        <f>J13+R4</f>
+        <v>5763.26</v>
+      </c>
+      <c r="O13">
+        <f t="shared" ref="O13:O19" si="0">M13-L13</f>
+        <v>-1518.1399999999994</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ref="P13:P19" si="1">O13/24</f>
+        <v>-63.255833333333307</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ref="Q13:Q19" si="2">E13</f>
+        <v>331.2</v>
+      </c>
+      <c r="S13">
+        <f t="shared" ref="S13:S19" si="3">Q13+P13</f>
+        <v>267.94416666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -734,8 +845,31 @@
       <c r="J14">
         <v>5833.83</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>7281.4</v>
+      </c>
+      <c r="M14">
+        <f>J14+R4</f>
+        <v>7365.93</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>84.530000000000655</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>3.5220833333333608</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>266.64</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>270.16208333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -763,8 +897,31 @@
       <c r="J15">
         <v>6729</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>7281.4</v>
+      </c>
+      <c r="M15">
+        <f>J15+R4</f>
+        <v>8261.1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>979.70000000000073</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>40.820833333333361</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>224.36</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>265.1808333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -792,8 +949,31 @@
       <c r="J16">
         <v>8072.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>7281.4</v>
+      </c>
+      <c r="M16">
+        <f>J16+R4</f>
+        <v>9604.4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2323</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>96.791666666666671</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>174.5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>271.29166666666669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -821,8 +1001,71 @@
       <c r="J17">
         <v>8991</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <v>7281.4</v>
+      </c>
+      <c r="M17">
+        <f>J17+R4</f>
+        <v>10523.1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>3241.7000000000007</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>135.07083333333335</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>133.87</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>268.94083333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <v>7281.4</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <v>7268.14</v>
+      </c>
+      <c r="L19">
+        <v>7281.4</v>
+      </c>
+      <c r="M19">
+        <f>J19+R4</f>
+        <v>8800.24</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>1518.8400000000001</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>63.285000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>194.47</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>257.755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -845,7 +1088,7 @@
         <v>2214.92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -853,7 +1096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>25</v>
       </c>
@@ -867,7 +1110,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
@@ -881,7 +1124,7 @@
         <v>0.12230000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>100</v>
       </c>
@@ -895,7 +1138,7 @@
         <v>0.19089999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>150</v>
       </c>
@@ -909,7 +1152,7 @@
         <v>0.2392</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>200</v>
       </c>
@@ -923,7 +1166,7 @@
         <v>0.2661</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>250</v>
       </c>
@@ -937,7 +1180,7 @@
         <v>0.2863</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>300</v>
       </c>
@@ -951,7 +1194,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>400</v>
       </c>
@@ -965,7 +1208,7 @@
         <v>0.32190000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>500</v>
       </c>
@@ -979,7 +1222,7 @@
         <v>0.33900000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>600</v>
       </c>
@@ -991,6 +1234,135 @@
       </c>
       <c r="D33">
         <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="C40">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="E40">
+        <v>147.76</v>
+      </c>
+      <c r="F40">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="G40">
+        <v>6.7</v>
+      </c>
+      <c r="H40">
+        <v>13.1</v>
+      </c>
+      <c r="J40">
+        <v>119</v>
+      </c>
+      <c r="K40">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="C41">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="E41">
+        <v>189.66</v>
+      </c>
+      <c r="F41">
+        <v>12.4</v>
+      </c>
+      <c r="G41">
+        <v>7.3</v>
+      </c>
+      <c r="H41">
+        <v>14.8</v>
+      </c>
+      <c r="J41">
+        <v>123</v>
+      </c>
+      <c r="K41">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="C42">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="E42">
+        <v>195.71</v>
+      </c>
+      <c r="F42">
+        <v>11.61</v>
+      </c>
+      <c r="G42">
+        <v>7.8</v>
+      </c>
+      <c r="H42">
+        <v>15.8</v>
+      </c>
+      <c r="J42">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43">
+        <v>0.52959999999999996</v>
+      </c>
+      <c r="C43">
+        <v>0.2722</v>
+      </c>
+      <c r="E43">
+        <v>194.47</v>
+      </c>
+      <c r="F43">
+        <v>12.08</v>
+      </c>
+      <c r="G43">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H43">
+        <v>14.6</v>
+      </c>
+      <c r="J43">
+        <v>131</v>
+      </c>
+      <c r="K43">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/example_2_folder/metrics_exemple_2.xlsx
+++ b/example_2_folder/metrics_exemple_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F553DBB2-D68F-4E77-A694-CD437D610697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61559152-01C9-4F3A-89EC-90B607784091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>type</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>max saving</t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>prix par an(10ans)</t>
+  </si>
+  <si>
+    <t>prix par hab par an</t>
+  </si>
+  <si>
+    <t>rev inv par hab</t>
+  </si>
+  <si>
+    <t>https://solarwinkel.be/fr/syst%C3%A8mes-de-batteries-16/jeu-de-batteries-complet-37/solaredge-home-battery-400v-energy-bank-10kwh-battery-620</t>
   </si>
 </sst>
 </file>
@@ -473,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:S43"/>
+  <dimension ref="A2:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -545,7 +560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -583,7 +598,7 @@
         <v>1532.1</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -611,8 +626,37 @@
       <c r="J5">
         <v>7274.77</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6">
+        <v>5432.9</v>
+      </c>
+      <c r="U6">
+        <v>543.29999999999995</v>
+      </c>
+      <c r="V6">
+        <v>22.6</v>
+      </c>
+      <c r="W6">
+        <v>109.75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -640,8 +684,20 @@
       <c r="J7">
         <v>8926.3700000000008</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>10865.8</v>
+      </c>
+      <c r="U7">
+        <v>1086.5999999999999</v>
+      </c>
+      <c r="V7">
+        <v>45.3</v>
+      </c>
+      <c r="W7">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -672,19 +728,31 @@
       <c r="L8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>2700</v>
+      </c>
+      <c r="U8">
+        <v>270</v>
+      </c>
+      <c r="V8">
+        <v>11.25</v>
+      </c>
+      <c r="W8">
+        <v>163.6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.5423</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="D9">
-        <v>0.26429999999999998</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="E9">
-        <v>199.06</v>
+        <v>196.8</v>
       </c>
       <c r="F9">
         <v>11.72</v>
@@ -699,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="J9">
-        <v>7387.64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9947.18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P10" t="s">
         <v>30</v>
       </c>
@@ -713,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -765,7 +833,7 @@
         <v>270.62583333333339</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -809,7 +877,7 @@
         <v>-63.255833333333307</v>
       </c>
       <c r="Q13">
-        <f t="shared" ref="Q13:Q19" si="2">E13</f>
+        <f t="shared" ref="Q13:Q18" si="2">E13</f>
         <v>331.2</v>
       </c>
       <c r="S13">
@@ -817,7 +885,7 @@
         <v>267.94416666666666</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -869,7 +937,7 @@
         <v>270.16208333333333</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -921,7 +989,7 @@
         <v>265.1808333333334</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
